--- a/실무_엑셀_예제_파일/Chapter04/04-001.xlsx
+++ b/실무_엑셀_예제_파일/Chapter04/04-001.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23906"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oppadu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel\실무_엑셀_예제_파일\Chapter04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00FB8770-00F0-4789-A7B3-7333D3F5567E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{123AFC02-7882-40C7-952A-9836184074B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset1" sheetId="2" r:id="rId1"/>
@@ -2561,13 +2561,16 @@
   <dimension ref="A1:AC52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="48.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="29" width="12.08984375" customWidth="1"/>
+    <col min="1" max="1" width="48.921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="29" width="12.07421875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.45">
